--- a/doc/what_to_no_student_info.xlsx
+++ b/doc/what_to_no_student_info.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balandongiv\IdeaProjects\pygla\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D86855E-9845-4171-B698-561011702FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89463FF4-6728-4699-85CA-CE09FB2192F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="input_data_scale_7" sheetId="2" r:id="rId1"/>
-    <sheet name="reference_val" sheetId="3" r:id="rId2"/>
-    <sheet name="calculation" sheetId="1" r:id="rId3"/>
+    <sheet name="read_me" sheetId="4" r:id="rId1"/>
+    <sheet name="input_data_scale_7" sheetId="2" r:id="rId2"/>
+    <sheet name="reference_val" sheetId="3" r:id="rId3"/>
+    <sheet name="calculation" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>('research_information_gathering', 'std1')</t>
   </si>
@@ -288,6 +289,9 @@
   </si>
   <si>
     <t>assessor_student_id</t>
+  </si>
+  <si>
+    <t>I am still curious what to do for student with no information, and how it affect the weightage value</t>
   </si>
 </sst>
 </file>
@@ -456,25 +460,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -685,6 +670,25 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -699,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D280DAE9-69F8-4CC0-984B-71971923FFD2}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D280DAE9-69F8-4CC0-984B-71971923FFD2}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:L11" xr:uid="{D280DAE9-69F8-4CC0-984B-71971923FFD2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -726,17 +730,17 @@
     <tableColumn id="6" xr3:uid="{0C2F70F5-D684-48CB-BDD2-3BDD3F486B68}" name="communication"/>
     <tableColumn id="7" xr3:uid="{889577E9-BB74-4690-852F-349053F6CAB2}" name="contribution_quality"/>
     <tableColumn id="8" xr3:uid="{BCB5EF98-8C1E-4303-8AAC-7E52EF7EB2C2}" name="meeting_attendance"/>
-    <tableColumn id="9" xr3:uid="{5F154FE6-8C51-471D-BCEE-C7359EEF417C}" name="justification" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{5F154FE6-8C51-471D-BCEE-C7359EEF417C}" name="justification" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{222FC53F-F34A-44B5-89D1-B7B950AFF1D6}" name="Table4" displayName="Table4" ref="A1:AT5" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{222FC53F-F34A-44B5-89D1-B7B950AFF1D6}" name="Table4" displayName="Table4" ref="A1:AT5" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:AT5" xr:uid="{222FC53F-F34A-44B5-89D1-B7B950AFF1D6}"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{06C748C3-F7F1-4930-A31A-B2EE34D64956}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{06C748C3-F7F1-4930-A31A-B2EE34D64956}" name="Column1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{21C8F336-C2C7-4F53-91FF-FD85AE4B07BA}" name="('research_information_gathering', 'std1')"/>
     <tableColumn id="3" xr3:uid="{BB509B3E-FFB8-48C9-9276-E77BDA5DDF06}" name="('creative_input', 'std1')"/>
     <tableColumn id="4" xr3:uid="{A7013E69-EDF9-4917-94BB-FB9BFF99613E}" name="('coperation_within_group', 'std1')"/>
@@ -765,12 +769,12 @@
     <tableColumn id="27" xr3:uid="{C1D704CC-1C5E-46C0-9ABE-9D9A3942F2C3}" name="('justification', 'std2')"/>
     <tableColumn id="28" xr3:uid="{8A2B6E9D-5698-447A-B3D0-9BEB149DD28A}" name="('justification', 'std3')"/>
     <tableColumn id="29" xr3:uid="{9A1BE0AC-0A1B-4912-A35C-F2B8555361A9}" name="('justification', 'std4')"/>
-    <tableColumn id="30" xr3:uid="{A92B2442-6F6F-4F21-AA1C-03E916A7FC8B}" name="('average', 'research_information_gathering')" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{337F31C4-73AE-4FB7-95C0-06AA5F70953D}" name="('average', 'creative_input')" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{10C0CA81-9351-42B8-BB0D-09DCD09B4908}" name="('average', 'coperation_within_group')" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{E115DB26-F27B-4888-B4DC-D4263811A1F4}" name="('average', 'communication')" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{97854F33-4258-4F8B-84A1-EAE8FFEAE6F1}" name="('average', 'contribution_quality')" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{11322303-82EF-42F7-AED2-347299EB9308}" name="('average', 'meeting_attendance')" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{A92B2442-6F6F-4F21-AA1C-03E916A7FC8B}" name="('average', 'research_information_gathering')" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{337F31C4-73AE-4FB7-95C0-06AA5F70953D}" name="('average', 'creative_input')" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{10C0CA81-9351-42B8-BB0D-09DCD09B4908}" name="('average', 'coperation_within_group')" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{E115DB26-F27B-4888-B4DC-D4263811A1F4}" name="('average', 'communication')" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{97854F33-4258-4F8B-84A1-EAE8FFEAE6F1}" name="('average', 'contribution_quality')" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{11322303-82EF-42F7-AED2-347299EB9308}" name="('average', 'meeting_attendance')" dataDxfId="2"/>
     <tableColumn id="36" xr3:uid="{23020093-2BE8-4FD8-B7C3-76938CB71A96}" name="('percentage_trans', 'research_information_gathering')">
       <calculatedColumnFormula>(AD2*reference_val!D$2)/reference_val!C$2</calculatedColumnFormula>
     </tableColumn>
@@ -789,14 +793,14 @@
     <tableColumn id="41" xr3:uid="{54834F96-85F5-4FFB-B6A7-440A29D87566}" name="('percentage_trans', 'meeting_attendance')">
       <calculatedColumnFormula>(AI2*reference_val!D$7)/reference_val!C$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{81ED2615-BDAB-4EB1-BF5E-249890452C71}" name="('sum_percentage_all_elements', '')" dataDxfId="2">
+    <tableColumn id="42" xr3:uid="{81ED2615-BDAB-4EB1-BF5E-249890452C71}" name="('sum_percentage_all_elements', '')" dataDxfId="1">
       <calculatedColumnFormula>SUM(AJ2:AO2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="43" xr3:uid="{4DCC581C-D3E1-407D-B52B-D3C557A8ACFC}" name="sum_percentage">
       <calculatedColumnFormula>SUM(AP$2:AP$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="44" xr3:uid="{0E710775-416F-4833-9D79-FB36591BB2F1}" name="nmember_group"/>
-    <tableColumn id="45" xr3:uid="{BD76E69A-6BC8-422E-81AC-8725F5EAC6BE}" name="('factor', '')" dataDxfId="1">
+    <tableColumn id="45" xr3:uid="{BD76E69A-6BC8-422E-81AC-8725F5EAC6BE}" name="('factor', '')" dataDxfId="0">
       <calculatedColumnFormula>IF(ISERROR((AP2*AQ2)/AQ2),0,(AP2*AR2)/AQ2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="46" xr3:uid="{D167CBEE-21DB-4597-A9E6-78CE87355B36}" name="validation_without_iferror">
@@ -1091,10 +1095,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D4049-4F7B-4AF7-BB6C-EE50D4B2C6D0}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F563E46-58D5-4859-ABB0-C3D23E7CAFFD}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -1518,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B76A80-A9EE-4CBF-9233-DAAF9B7CF3F0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1637,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
